--- a/biology/Zoologie/Eurypoena_tuberosa/Eurypoena_tuberosa.xlsx
+++ b/biology/Zoologie/Eurypoena_tuberosa/Eurypoena_tuberosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurypoena tuberosa, unique représentant du genre Eurypoena, est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurypoena tuberosa, unique représentant du genre Eurypoena, est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Espagne aux îles Canaries et au Cap-Vert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Espagne aux îles Canaries et au Cap-Vert.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eurypoena tuberosa mesure 1,5 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eurypoena tuberosa mesure 1,5 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 05/05/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 05/05/2024) :
 Eurypoena tuberosa tuberosa (Wunderlich, 1987) des îles Canaries (La Gomera, Tenerife et la Grande Canarie) et du Cap-Vert
 Eurypoena tuberosa alegranzaensis Wunderlich, 1992 de Lanzarote</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euryopis tuberosa par Wunderlich en 1987. Elle est placée dans le genre Eurypoena par Wunderlich en 1992[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Euryopis tuberosa par Wunderlich en 1987. Elle est placée dans le genre Eurypoena par Wunderlich en 1992.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Wunderlich, 1987 : Die Spinnen der Kanarischen Inseln und Madeiras: Adaptive Radiation, Biogeographie, Revisionen und Neubeschreibungen. Triops Verlag, Langen, p. 1-435.
 Wunderlich, 1992 : Die Spinnen-Fauna der Makaronesischen Inseln: Taxonomie, Ökologie, Biogeographie und Evolution. Beiträge zur Araneologie, vol. 1, p. 1-619.</t>
